--- a/biology/Botanique/Callicarpe_de_Bodinier/Callicarpe_de_Bodinier.xlsx
+++ b/biology/Botanique/Callicarpe_de_Bodinier/Callicarpe_de_Bodinier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Callicarpa bodinieri
-Le callicarpe de Bodinier, encore appelé arbuste aux bonbons[1], est un arbuste à feuilles caduques de la famille des Lamiaceae (anciennement Verbenaceae), remarquable par sa production de baies d'un violet vif en grappes serrées le long des tiges. Callicarpa signifie 'jolie baie' en grec.
+Le callicarpe de Bodinier, encore appelé arbuste aux bonbons, est un arbuste à feuilles caduques de la famille des Lamiaceae (anciennement Verbenaceae), remarquable par sa production de baies d'un violet vif en grappes serrées le long des tiges. Callicarpa signifie 'jolie baie' en grec.
 Cette espèce a été dédiée par Augustin Mgr Léveillé au père Émile-Marie Bodinier, missionnaire et collecteur botaniste en Chine.
 Des baies ressemblant à de petites perles de couleur violet améthyste, mesurant de 3,5 à 4 mm de diamètre apparaissent sur l’arbuste au début du mois d’octobre et persistent jusque la fin de l’automne. Elles sont très astringentes et considérées comme non comestibles pour l'homme.
 L’arbuste produit en juillet de très petites fleurs pédonculées réunies en cymes axillaires d'environ 3,5 cm de diamètre. Celles-ci ont un calice campanulé composé de 4 sépales tomenteux. La corolle quadrilobée des fleurs de couleur rose lilas.
